--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1042909510908293</v>
+        <v>-0.001945245810387531</v>
       </c>
       <c r="C2">
-        <v>0.2290465909359313</v>
+        <v>0.2935336163097054</v>
       </c>
       <c r="D2">
-        <v>0.09871177593499188</v>
+        <v>0.1258855206509258</v>
       </c>
       <c r="E2">
-        <v>0.3141843024961494</v>
+        <v>0.3548034958268109</v>
       </c>
       <c r="F2">
-        <v>0.307557677939986</v>
+        <v>0.3681914545215764</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1070557261418801</v>
+        <v>-0.1174709636328633</v>
       </c>
       <c r="C3">
-        <v>0.1948195433949426</v>
+        <v>0.1732624921278526</v>
       </c>
       <c r="D3">
-        <v>0.08393561607121458</v>
+        <v>0.07702310541338803</v>
       </c>
       <c r="E3">
-        <v>0.289716440802407</v>
+        <v>0.2775303684525137</v>
       </c>
       <c r="F3">
-        <v>0.2802039344282484</v>
+        <v>0.2650443948485162</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1092295380391787</v>
+        <v>-0.09565720112800367</v>
       </c>
       <c r="C4">
-        <v>0.2107264817009861</v>
+        <v>0.1894051810005109</v>
       </c>
       <c r="D4">
-        <v>0.08783816601537808</v>
+        <v>0.09346882424652281</v>
       </c>
       <c r="E4">
-        <v>0.2963750428348819</v>
+        <v>0.3057267149702865</v>
       </c>
       <c r="F4">
-        <v>0.2877633005253242</v>
+        <v>0.3180915417653469</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05956868825954065</v>
+        <v>-0.05251693463138896</v>
       </c>
       <c r="C5">
-        <v>0.1583316599584897</v>
+        <v>0.05251693463138896</v>
       </c>
       <c r="D5">
-        <v>0.04417493890154174</v>
+        <v>0.002890523596605528</v>
       </c>
       <c r="E5">
-        <v>0.2101783502208107</v>
+        <v>0.05376358987833241</v>
       </c>
       <c r="F5">
-        <v>0.211398110939141</v>
+        <v>0.01627852410557828</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-0.0245787924936587</v>
-      </c>
-      <c r="C6">
-        <v>0.1345197458300083</v>
-      </c>
-      <c r="D6">
-        <v>0.03197293818071571</v>
-      </c>
-      <c r="E6">
-        <v>0.1788097821169628</v>
-      </c>
-      <c r="F6">
-        <v>0.1866929182144048</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>-0.07612024327074107</v>
-      </c>
-      <c r="C7">
-        <v>0.1466663200301978</v>
-      </c>
-      <c r="D7">
-        <v>0.03830212986004149</v>
-      </c>
-      <c r="E7">
-        <v>0.195709299370371</v>
-      </c>
-      <c r="F7">
-        <v>0.1947455044286914</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>-0.06602449724905395</v>
-      </c>
-      <c r="C8">
-        <v>0.08939029150953849</v>
-      </c>
-      <c r="D8">
-        <v>0.009821142290581826</v>
-      </c>
-      <c r="E8">
-        <v>0.09910167652760384</v>
-      </c>
-      <c r="F8">
-        <v>0.08533782321723074</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>-0.1062424547910673</v>
-      </c>
-      <c r="C9">
-        <v>0.1062424547910673</v>
-      </c>
-      <c r="D9">
-        <v>0.01128745920003198</v>
-      </c>
-      <c r="E9">
-        <v>0.1062424547910673</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.001945245810387531</v>
+        <v>0.06224550739541238</v>
       </c>
       <c r="C2">
-        <v>0.2935336163097054</v>
+        <v>0.4815100860261196</v>
       </c>
       <c r="D2">
-        <v>0.1258855206509258</v>
+        <v>0.5188979745415299</v>
       </c>
       <c r="E2">
-        <v>0.3548034958268109</v>
+        <v>0.7203457326461578</v>
       </c>
       <c r="F2">
-        <v>0.3681914545215764</v>
+        <v>0.7255814477924799</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1174709636328633</v>
+        <v>0.009644723670651665</v>
       </c>
       <c r="C3">
-        <v>0.1732624921278526</v>
+        <v>0.4809544651665302</v>
       </c>
       <c r="D3">
-        <v>0.07702310541338803</v>
+        <v>0.5144163341041081</v>
       </c>
       <c r="E3">
-        <v>0.2775303684525137</v>
+        <v>0.7172282301360622</v>
       </c>
       <c r="F3">
-        <v>0.2650443948485162</v>
+        <v>0.725267178095959</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.09565720112800367</v>
+        <v>0.04605011742652749</v>
       </c>
       <c r="C4">
-        <v>0.1894051810005109</v>
+        <v>0.4545971144787497</v>
       </c>
       <c r="D4">
-        <v>0.09346882424652281</v>
+        <v>0.4787573890230339</v>
       </c>
       <c r="E4">
-        <v>0.3057267149702865</v>
+        <v>0.691922964659386</v>
       </c>
       <c r="F4">
-        <v>0.3180915417653469</v>
+        <v>0.6983704975779645</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05251693463138896</v>
+        <v>0.02000496247511335</v>
       </c>
       <c r="C5">
-        <v>0.05251693463138896</v>
+        <v>0.4699992430775199</v>
       </c>
       <c r="D5">
-        <v>0.002890523596605528</v>
+        <v>0.4788062426551278</v>
       </c>
       <c r="E5">
-        <v>0.05376358987833241</v>
+        <v>0.6919582665559592</v>
       </c>
       <c r="F5">
-        <v>0.01627852410557828</v>
+        <v>0.6998547450934846</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.05983179997382334</v>
+      </c>
+      <c r="C6">
+        <v>0.4610733700736253</v>
+      </c>
+      <c r="D6">
+        <v>0.4940437835170411</v>
+      </c>
+      <c r="E6">
+        <v>0.702882482010358</v>
+      </c>
+      <c r="F6">
+        <v>0.7088204810331585</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.02666374005585367</v>
+      </c>
+      <c r="C7">
+        <v>0.4762874528960522</v>
+      </c>
+      <c r="D7">
+        <v>0.4947189357917796</v>
+      </c>
+      <c r="E7">
+        <v>0.7033625919764142</v>
+      </c>
+      <c r="F7">
+        <v>0.7115884908266601</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.05161238290339588</v>
+      </c>
+      <c r="C8">
+        <v>0.4630942636991037</v>
+      </c>
+      <c r="D8">
+        <v>0.5133492645108798</v>
+      </c>
+      <c r="E8">
+        <v>0.7164839597024345</v>
+      </c>
+      <c r="F8">
+        <v>0.7237264155437525</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.03337024079663585</v>
+      </c>
+      <c r="C9">
+        <v>0.4821917770522179</v>
+      </c>
+      <c r="D9">
+        <v>0.5171250100704028</v>
+      </c>
+      <c r="E9">
+        <v>0.7191140452462341</v>
+      </c>
+      <c r="F9">
+        <v>0.7277298162397244</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.06108869437512898</v>
+      </c>
+      <c r="C10">
+        <v>0.4568004358409793</v>
+      </c>
+      <c r="D10">
+        <v>0.5137306737460197</v>
+      </c>
+      <c r="E10">
+        <v>0.7167500776044741</v>
+      </c>
+      <c r="F10">
+        <v>0.7237282623592945</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.03255594249262348</v>
+      </c>
+      <c r="C11">
+        <v>0.4650544728812123</v>
+      </c>
+      <c r="D11">
+        <v>0.502363057293461</v>
+      </c>
+      <c r="E11">
+        <v>0.708775745418437</v>
+      </c>
+      <c r="F11">
+        <v>0.7177940205234036</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06224550739541238</v>
+        <v>0.03375954870909267</v>
       </c>
       <c r="C2">
-        <v>0.4815100860261196</v>
+        <v>0.6485414634705653</v>
       </c>
       <c r="D2">
-        <v>0.5188979745415299</v>
+        <v>0.7314436294522902</v>
       </c>
       <c r="E2">
-        <v>0.7203457326461578</v>
+        <v>0.8552447775065862</v>
       </c>
       <c r="F2">
-        <v>0.7255814477924799</v>
+        <v>0.8663660556530268</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.009644723670651665</v>
+        <v>0.03135085916488722</v>
       </c>
       <c r="C3">
-        <v>0.4809544651665302</v>
+        <v>0.5511937747325102</v>
       </c>
       <c r="D3">
-        <v>0.5144163341041081</v>
+        <v>0.5928526553971856</v>
       </c>
       <c r="E3">
-        <v>0.7172282301360622</v>
+        <v>0.7699692561376626</v>
       </c>
       <c r="F3">
-        <v>0.725267178095959</v>
+        <v>0.7802437722544544</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04605011742652749</v>
+        <v>0.0324755997945022</v>
       </c>
       <c r="C4">
-        <v>0.4545971144787497</v>
+        <v>0.5741707009966609</v>
       </c>
       <c r="D4">
-        <v>0.4787573890230339</v>
+        <v>0.6201381699606496</v>
       </c>
       <c r="E4">
-        <v>0.691922964659386</v>
+        <v>0.7874885205262675</v>
       </c>
       <c r="F4">
-        <v>0.6983704975779645</v>
+        <v>0.7983056080049333</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02000496247511335</v>
+        <v>0.04451789004105118</v>
       </c>
       <c r="C5">
-        <v>0.4699992430775199</v>
+        <v>0.5528601565202774</v>
       </c>
       <c r="D5">
-        <v>0.4788062426551278</v>
+        <v>0.615403550752249</v>
       </c>
       <c r="E5">
-        <v>0.6919582665559592</v>
+        <v>0.7844766094360296</v>
       </c>
       <c r="F5">
-        <v>0.6998547450934846</v>
+        <v>0.7949907199654754</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05983179997382334</v>
+        <v>0.02488288622478917</v>
       </c>
       <c r="C6">
-        <v>0.4610733700736253</v>
+        <v>0.5597336268738891</v>
       </c>
       <c r="D6">
-        <v>0.4940437835170411</v>
+        <v>0.6071832843101319</v>
       </c>
       <c r="E6">
-        <v>0.702882482010358</v>
+        <v>0.7792196637085924</v>
       </c>
       <c r="F6">
-        <v>0.7088204810331585</v>
+        <v>0.7908977527023375</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02666374005585367</v>
+        <v>0.06447809342936392</v>
       </c>
       <c r="C7">
-        <v>0.4762874528960522</v>
+        <v>0.5639312790710509</v>
       </c>
       <c r="D7">
-        <v>0.4947189357917796</v>
+        <v>0.6386050102870782</v>
       </c>
       <c r="E7">
-        <v>0.7033625919764142</v>
+        <v>0.7991276558141873</v>
       </c>
       <c r="F7">
-        <v>0.7115884908266601</v>
+        <v>0.8092673457567485</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05161238290339588</v>
+        <v>0.0316477260114686</v>
       </c>
       <c r="C8">
-        <v>0.4630942636991037</v>
+        <v>0.5875569779702665</v>
       </c>
       <c r="D8">
-        <v>0.5133492645108798</v>
+        <v>0.6486140808091702</v>
       </c>
       <c r="E8">
-        <v>0.7164839597024345</v>
+        <v>0.8053658055872314</v>
       </c>
       <c r="F8">
-        <v>0.7237264155437525</v>
+        <v>0.8180462001963719</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03337024079663585</v>
+        <v>0.05575202370392403</v>
       </c>
       <c r="C9">
-        <v>0.4821917770522179</v>
+        <v>0.5712956843590213</v>
       </c>
       <c r="D9">
-        <v>0.5171250100704028</v>
+        <v>0.6777300950868858</v>
       </c>
       <c r="E9">
-        <v>0.7191140452462341</v>
+        <v>0.8232436426033825</v>
       </c>
       <c r="F9">
-        <v>0.7277298162397244</v>
+        <v>0.8353948933700528</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06108869437512898</v>
+        <v>0.03351674390117437</v>
       </c>
       <c r="C10">
-        <v>0.4568004358409793</v>
+        <v>0.5951644878936757</v>
       </c>
       <c r="D10">
-        <v>0.5137306737460197</v>
+        <v>0.6821752870341646</v>
       </c>
       <c r="E10">
-        <v>0.7167500776044741</v>
+        <v>0.8259390334850174</v>
       </c>
       <c r="F10">
-        <v>0.7237282623592945</v>
+        <v>0.8398661783807415</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03255594249262348</v>
+        <v>0.06637440518007821</v>
       </c>
       <c r="C11">
-        <v>0.4650544728812123</v>
+        <v>0.5683437572335094</v>
       </c>
       <c r="D11">
-        <v>0.502363057293461</v>
+        <v>0.6866267435578414</v>
       </c>
       <c r="E11">
-        <v>0.708775745418437</v>
+        <v>0.8286294368159035</v>
       </c>
       <c r="F11">
-        <v>0.7177940205234036</v>
+        <v>0.8411234351010097</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03375954870909267</v>
+        <v>0.1138805618700174</v>
       </c>
       <c r="C2">
-        <v>0.6485414634705653</v>
+        <v>0.6694003603824907</v>
       </c>
       <c r="D2">
-        <v>0.7314436294522902</v>
+        <v>0.9608326689999721</v>
       </c>
       <c r="E2">
-        <v>0.8552447775065862</v>
+        <v>0.9802207246329635</v>
       </c>
       <c r="F2">
-        <v>0.8663660556530268</v>
+        <v>0.9843411647153698</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03135085916488722</v>
+        <v>0.1339046951553961</v>
       </c>
       <c r="C3">
-        <v>0.5511937747325102</v>
+        <v>0.6361935837409688</v>
       </c>
       <c r="D3">
-        <v>0.5928526553971856</v>
+        <v>0.871221168554793</v>
       </c>
       <c r="E3">
-        <v>0.7699692561376626</v>
+        <v>0.9333922908160283</v>
       </c>
       <c r="F3">
-        <v>0.7802437722544544</v>
+        <v>0.9341753966206093</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0324755997945022</v>
+        <v>0.1063780764838869</v>
       </c>
       <c r="C4">
-        <v>0.5741707009966609</v>
+        <v>0.6141093436083507</v>
       </c>
       <c r="D4">
-        <v>0.6201381699606496</v>
+        <v>0.8390184551844652</v>
       </c>
       <c r="E4">
-        <v>0.7874885205262675</v>
+        <v>0.9159795058757948</v>
       </c>
       <c r="F4">
-        <v>0.7983056080049333</v>
+        <v>0.9202994335924404</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04451789004105118</v>
+        <v>0.11775944203778</v>
       </c>
       <c r="C5">
-        <v>0.5528601565202774</v>
+        <v>0.5965073955900791</v>
       </c>
       <c r="D5">
-        <v>0.615403550752249</v>
+        <v>0.8555400390622062</v>
       </c>
       <c r="E5">
-        <v>0.7844766094360296</v>
+        <v>0.9249540740286548</v>
       </c>
       <c r="F5">
-        <v>0.7949907199654754</v>
+        <v>0.9282847517451299</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02488288622478917</v>
+        <v>0.1092673841238316</v>
       </c>
       <c r="C6">
-        <v>0.5597336268738891</v>
+        <v>0.6065317009167946</v>
       </c>
       <c r="D6">
-        <v>0.6071832843101319</v>
+        <v>0.8588038977416446</v>
       </c>
       <c r="E6">
-        <v>0.7792196637085924</v>
+        <v>0.9267167300430291</v>
       </c>
       <c r="F6">
-        <v>0.7908977527023375</v>
+        <v>0.9314074130616231</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06447809342936392</v>
+        <v>0.1420621155324862</v>
       </c>
       <c r="C7">
-        <v>0.5639312790710509</v>
+        <v>0.618246900775709</v>
       </c>
       <c r="D7">
-        <v>0.6386050102870782</v>
+        <v>0.8875902017685597</v>
       </c>
       <c r="E7">
-        <v>0.7991276558141873</v>
+        <v>0.9421200569824207</v>
       </c>
       <c r="F7">
-        <v>0.8092673457567485</v>
+        <v>0.9429176904833576</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0316477260114686</v>
+        <v>0.1171206258823649</v>
       </c>
       <c r="C8">
-        <v>0.5875569779702665</v>
+        <v>0.6341557086697007</v>
       </c>
       <c r="D8">
-        <v>0.6486140808091702</v>
+        <v>0.8971434966731959</v>
       </c>
       <c r="E8">
-        <v>0.8053658055872314</v>
+        <v>0.9471765921269359</v>
       </c>
       <c r="F8">
-        <v>0.8180462001963719</v>
+        <v>0.951881405921772</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05575202370392403</v>
+        <v>0.1397568759146854</v>
       </c>
       <c r="C9">
-        <v>0.5712956843590213</v>
+        <v>0.6260487419841291</v>
       </c>
       <c r="D9">
-        <v>0.6777300950868858</v>
+        <v>0.9269108917163016</v>
       </c>
       <c r="E9">
-        <v>0.8232436426033825</v>
+        <v>0.9627621158501728</v>
       </c>
       <c r="F9">
-        <v>0.8353948933700528</v>
+        <v>0.9650167354246122</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03351674390117437</v>
+        <v>0.1262535463842745</v>
       </c>
       <c r="C10">
-        <v>0.5951644878936757</v>
+        <v>0.6468408961867226</v>
       </c>
       <c r="D10">
-        <v>0.6821752870341646</v>
+        <v>0.9346570565552187</v>
       </c>
       <c r="E10">
-        <v>0.8259390334850174</v>
+        <v>0.9667766321934032</v>
       </c>
       <c r="F10">
-        <v>0.8398661783807415</v>
+        <v>0.9713636242078157</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06637440518007821</v>
+        <v>0.1560923699556315</v>
       </c>
       <c r="C11">
-        <v>0.5683437572335094</v>
+        <v>0.6300966329498551</v>
       </c>
       <c r="D11">
-        <v>0.6866267435578414</v>
+        <v>0.9461960779220975</v>
       </c>
       <c r="E11">
-        <v>0.8286294368159035</v>
+        <v>0.9727261063228937</v>
       </c>
       <c r="F11">
-        <v>0.8411234351010097</v>
+        <v>0.9733641012354192</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1420621155324862</v>
+        <v>0.1468522516250963</v>
       </c>
       <c r="C7">
-        <v>0.618246900775709</v>
+        <v>0.6403690953631123</v>
       </c>
       <c r="D7">
-        <v>0.8875902017685597</v>
+        <v>0.9600378145316305</v>
       </c>
       <c r="E7">
-        <v>0.9421200569824207</v>
+        <v>0.9798151940706117</v>
       </c>
       <c r="F7">
-        <v>0.9429176904833576</v>
+        <v>0.9824895536496444</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1171206258823649</v>
+        <v>0.1837530684691744</v>
       </c>
       <c r="C8">
-        <v>0.6341557086697007</v>
+        <v>0.6684895077115939</v>
       </c>
       <c r="D8">
-        <v>0.8971434966731959</v>
+        <v>0.9976342611431646</v>
       </c>
       <c r="E8">
-        <v>0.9471765921269359</v>
+        <v>0.9988164301527906</v>
       </c>
       <c r="F8">
-        <v>0.951881405921772</v>
+        <v>0.9961014814234609</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1397568759146854</v>
+        <v>0.1757836139713026</v>
       </c>
       <c r="C9">
-        <v>0.6260487419841291</v>
+        <v>0.7570773967417573</v>
       </c>
       <c r="D9">
-        <v>0.9269108917163016</v>
+        <v>1.457116255293309</v>
       </c>
       <c r="E9">
-        <v>0.9627621158501728</v>
+        <v>1.207110705483681</v>
       </c>
       <c r="F9">
-        <v>0.9650167354246122</v>
+        <v>1.225267479434806</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1262535463842745</v>
+        <v>-0.1910145113676734</v>
       </c>
       <c r="C10">
-        <v>0.6468408961867226</v>
+        <v>0.6497709479478674</v>
       </c>
       <c r="D10">
-        <v>0.9346570565552187</v>
+        <v>1.405754352160177</v>
       </c>
       <c r="E10">
-        <v>0.9667766321934032</v>
+        <v>1.185645120666457</v>
       </c>
       <c r="F10">
-        <v>0.9713636242078157</v>
+        <v>1.217938200125281</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1560923699556315</v>
+        <v>0.03995114952237531</v>
       </c>
       <c r="C11">
-        <v>0.6300966329498551</v>
+        <v>0.4488742623708699</v>
       </c>
       <c r="D11">
-        <v>0.9461960779220975</v>
+        <v>0.3692268520075374</v>
       </c>
       <c r="E11">
-        <v>0.9727261063228937</v>
+        <v>0.6076403969516324</v>
       </c>
       <c r="F11">
-        <v>0.9733641012354192</v>
+        <v>0.6778926515859446</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
